--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r109_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r109_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -477,10 +489,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -524,28 +536,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -570,28 +582,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -824,10 +836,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -871,28 +883,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -917,28 +929,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1171,10 +1183,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1218,28 +1230,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1264,28 +1276,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1460,10 +1472,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1507,28 +1519,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1553,28 +1565,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1807,10 +1819,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="J58" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1854,28 +1866,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1900,28 +1912,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2125,10 +2137,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="J69" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2172,28 +2184,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2218,28 +2230,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2443,10 +2455,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="2" t="s">
+      <c r="J80" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="K80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2490,28 +2502,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2536,28 +2548,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="2">
+      <c r="I84" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2790,10 +2802,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
+      <c r="J92" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K92" s="2" t="s">
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2837,28 +2849,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2883,28 +2895,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3108,10 +3120,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
+      <c r="J103" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K103" s="2" t="s">
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3155,28 +3167,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3201,28 +3213,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3455,10 +3467,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
+      <c r="J115" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K115" s="2" t="s">
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3502,28 +3514,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3548,28 +3560,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3744,10 +3756,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
+      <c r="J125" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K125" s="2" t="s">
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3791,28 +3803,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3837,28 +3849,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4062,10 +4074,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
+      <c r="J136" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K136" s="2" t="s">
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4109,28 +4121,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4155,28 +4167,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4322,10 +4334,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
+      <c r="J145" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K145" s="2" t="s">
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4369,28 +4381,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4415,28 +4427,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4669,10 +4681,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
+      <c r="J157" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K157" s="2" t="s">
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4716,28 +4728,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4762,28 +4774,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4987,10 +4999,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
+      <c r="J168" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K168" s="2" t="s">
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5034,28 +5046,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5080,28 +5092,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5247,10 +5259,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
+      <c r="J177" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K177" s="2" t="s">
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5294,28 +5306,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5340,28 +5352,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5507,10 +5519,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
+      <c r="J186" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K186" s="2" t="s">
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
